--- a/projects/res_stock_national_upgrades.xlsx
+++ b/projects/res_stock_national_upgrades.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8295" tabRatio="562" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8295" tabRatio="562"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -795,9 +795,6 @@
     <t>../resources/</t>
   </si>
   <si>
-    <t>1.18.0-rc0</t>
-  </si>
-  <si>
     <t>Res Stock Reporting</t>
   </si>
   <si>
@@ -940,6 +937,9 @@
   </si>
   <si>
     <t>Set Res Stock Mode - National</t>
+  </si>
+  <si>
+    <t>1.19.0-rc0</t>
   </si>
 </sst>
 </file>
@@ -4524,7 +4524,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4583,7 +4585,7 @@
         <v>74</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>253</v>
+        <v>301</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>154</v>
@@ -4716,7 +4718,7 @@
         <v>22</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F15" s="22" t="s">
         <v>155</v>
@@ -5029,7 +5031,7 @@
         <v>25</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="40" spans="1:6" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -5104,7 +5106,7 @@
         <v>239</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="47" spans="1:6" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -5174,7 +5176,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5356,7 +5358,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C4" s="39" t="s">
         <v>248</v>
@@ -5405,7 +5407,7 @@
       </c>
       <c r="H5" s="10"/>
       <c r="I5" s="10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="J5" s="10"/>
       <c r="K5" s="10"/>
@@ -5512,13 +5514,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="40" t="s">
+        <v>253</v>
+      </c>
+      <c r="C8" s="40" t="s">
         <v>254</v>
       </c>
-      <c r="C8" s="40" t="s">
-        <v>255</v>
-      </c>
       <c r="D8" s="40" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E8" s="40" t="s">
         <v>236</v>
@@ -5548,13 +5550,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="40" t="s">
+        <v>258</v>
+      </c>
+      <c r="C9" s="40" t="s">
         <v>259</v>
       </c>
-      <c r="C9" s="40" t="s">
-        <v>260</v>
-      </c>
       <c r="D9" s="40" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E9" s="40" t="s">
         <v>236</v>
@@ -5752,15 +5754,15 @@
     </row>
     <row r="4" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="47" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B4" s="48"/>
       <c r="C4" s="48"/>
       <c r="D4" s="48" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F4" s="48" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G4" s="48" t="b">
         <v>0</v>
@@ -5778,13 +5780,13 @@
     </row>
     <row r="5" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="49" t="s">
+        <v>260</v>
+      </c>
+      <c r="D5" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="D5" s="14" t="s">
-        <v>262</v>
-      </c>
       <c r="F5" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G5" s="14" t="b">
         <v>0</v>
@@ -5798,13 +5800,13 @@
     </row>
     <row r="6" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="49" t="s">
+        <v>262</v>
+      </c>
+      <c r="D6" s="14" t="s">
         <v>263</v>
       </c>
-      <c r="D6" s="14" t="s">
-        <v>264</v>
-      </c>
       <c r="F6" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G6" s="14" t="b">
         <v>0</v>
@@ -5818,13 +5820,13 @@
     </row>
     <row r="7" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="49" t="s">
+        <v>264</v>
+      </c>
+      <c r="D7" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="D7" s="14" t="s">
-        <v>266</v>
-      </c>
       <c r="F7" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G7" s="14" t="b">
         <v>0</v>
@@ -5838,13 +5840,13 @@
     </row>
     <row r="8" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="49" t="s">
+        <v>266</v>
+      </c>
+      <c r="D8" s="14" t="s">
         <v>267</v>
       </c>
-      <c r="D8" s="14" t="s">
-        <v>268</v>
-      </c>
       <c r="F8" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G8" s="14" t="b">
         <v>0</v>
@@ -5858,13 +5860,13 @@
     </row>
     <row r="9" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="49" t="s">
+        <v>268</v>
+      </c>
+      <c r="D9" s="14" t="s">
         <v>269</v>
       </c>
-      <c r="D9" s="14" t="s">
-        <v>270</v>
-      </c>
       <c r="F9" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G9" s="14" t="b">
         <v>0</v>
@@ -5878,13 +5880,13 @@
     </row>
     <row r="10" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="49" t="s">
+        <v>270</v>
+      </c>
+      <c r="D10" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="D10" s="14" t="s">
-        <v>272</v>
-      </c>
       <c r="F10" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G10" s="14" t="b">
         <v>0</v>
@@ -5898,13 +5900,13 @@
     </row>
     <row r="11" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="49" t="s">
+        <v>272</v>
+      </c>
+      <c r="D11" s="14" t="s">
         <v>273</v>
       </c>
-      <c r="D11" s="14" t="s">
-        <v>274</v>
-      </c>
       <c r="F11" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G11" s="14" t="b">
         <v>0</v>
@@ -5918,13 +5920,13 @@
     </row>
     <row r="12" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="49" t="s">
+        <v>274</v>
+      </c>
+      <c r="D12" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="D12" s="14" t="s">
-        <v>276</v>
-      </c>
       <c r="F12" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G12" s="14" t="b">
         <v>0</v>
@@ -5938,13 +5940,13 @@
     </row>
     <row r="13" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="49" t="s">
+        <v>276</v>
+      </c>
+      <c r="D13" s="14" t="s">
         <v>277</v>
       </c>
-      <c r="D13" s="14" t="s">
-        <v>278</v>
-      </c>
       <c r="F13" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G13" s="14" t="b">
         <v>0</v>
@@ -5958,13 +5960,13 @@
     </row>
     <row r="14" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="49" t="s">
+        <v>278</v>
+      </c>
+      <c r="D14" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="D14" s="14" t="s">
-        <v>280</v>
-      </c>
       <c r="F14" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G14" s="14" t="b">
         <v>0</v>
@@ -5978,13 +5980,13 @@
     </row>
     <row r="15" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="49" t="s">
+        <v>280</v>
+      </c>
+      <c r="D15" s="14" t="s">
         <v>281</v>
       </c>
-      <c r="D15" s="14" t="s">
-        <v>282</v>
-      </c>
       <c r="F15" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G15" s="14" t="b">
         <v>0</v>
@@ -5998,13 +6000,13 @@
     </row>
     <row r="16" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="49" t="s">
+        <v>282</v>
+      </c>
+      <c r="D16" s="14" t="s">
         <v>283</v>
       </c>
-      <c r="D16" s="14" t="s">
-        <v>284</v>
-      </c>
       <c r="F16" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G16" s="14" t="b">
         <v>0</v>
@@ -6018,13 +6020,13 @@
     </row>
     <row r="17" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="D17" s="14" t="s">
         <v>285</v>
       </c>
-      <c r="D17" s="14" t="s">
-        <v>286</v>
-      </c>
       <c r="F17" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G17" s="14" t="b">
         <v>0</v>
@@ -6038,13 +6040,13 @@
     </row>
     <row r="18" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="D18" s="14" t="s">
         <v>287</v>
       </c>
-      <c r="D18" s="14" t="s">
-        <v>288</v>
-      </c>
       <c r="F18" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G18" s="14" t="b">
         <v>0</v>
@@ -6058,13 +6060,13 @@
     </row>
     <row r="19" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
+        <v>288</v>
+      </c>
+      <c r="D19" s="14" t="s">
         <v>289</v>
       </c>
-      <c r="D19" s="14" t="s">
-        <v>290</v>
-      </c>
       <c r="F19" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G19" s="14" t="b">
         <v>0</v>
@@ -6078,13 +6080,13 @@
     </row>
     <row r="20" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="D20" s="14" t="s">
         <v>291</v>
       </c>
-      <c r="D20" s="14" t="s">
-        <v>292</v>
-      </c>
       <c r="F20" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G20" s="14" t="b">
         <v>0</v>
@@ -6098,13 +6100,13 @@
     </row>
     <row r="21" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="D21" s="14" t="s">
         <v>293</v>
       </c>
-      <c r="D21" s="14" t="s">
-        <v>294</v>
-      </c>
       <c r="F21" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G21" s="14" t="b">
         <v>0</v>
@@ -6118,13 +6120,13 @@
     </row>
     <row r="22" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="D22" s="14" t="s">
         <v>295</v>
       </c>
-      <c r="D22" s="14" t="s">
-        <v>296</v>
-      </c>
       <c r="F22" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G22" s="14" t="b">
         <v>0</v>

--- a/projects/res_stock_national_upgrades.xlsx
+++ b/projects/res_stock_national_upgrades.xlsx
@@ -29,12 +29,12 @@
     <definedName name="TrueFalse">Lookups!$C$14:$C$15</definedName>
     <definedName name="Workflow">Lookups!$E$14:$E$15</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="317">
   <si>
     <t>type</t>
   </si>
@@ -774,21 +774,9 @@
     <t>variable</t>
   </si>
   <si>
-    <t>uniform</t>
-  </si>
-  <si>
     <t>ResStock Upgrades</t>
   </si>
   <si>
-    <t>SetResStockMode</t>
-  </si>
-  <si>
-    <t>Res Stock Mode</t>
-  </si>
-  <si>
-    <t>res_stock_mode</t>
-  </si>
-  <si>
     <t>resources</t>
   </si>
   <si>
@@ -924,6 +912,72 @@
     <t>standard_reports.Other Fuel Water Systems MBtu</t>
   </si>
   <si>
+    <t>1.19.0-rc0</t>
+  </si>
+  <si>
+    <t>diag</t>
+  </si>
+  <si>
+    <t>diagonal</t>
+  </si>
+  <si>
+    <t>pivot</t>
+  </si>
+  <si>
+    <t>run_measure</t>
+  </si>
+  <si>
+    <t>Integer</t>
+  </si>
+  <si>
+    <t>[0,1]</t>
+  </si>
+  <si>
+    <t>ApplyUpgrade</t>
+  </si>
+  <si>
+    <t>Option Name</t>
+  </si>
+  <si>
+    <t>option_name</t>
+  </si>
+  <si>
+    <t>Parameter Name</t>
+  </si>
+  <si>
+    <t>parameter_name</t>
+  </si>
+  <si>
+    <t>Insulation Unfinished Attic</t>
+  </si>
+  <si>
+    <t>Ceiling R-60, Vented</t>
+  </si>
+  <si>
+    <t>R60 Attic Insulation Upgrade</t>
+  </si>
+  <si>
+    <t>Apply Logic</t>
+  </si>
+  <si>
+    <t>apply_logic</t>
+  </si>
+  <si>
+    <t>FIXME</t>
+  </si>
+  <si>
+    <t>[1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,37,38,39,40,41,42,43,44,45,46,47,48,49,50,51,52,53,54,55,56,57,58,59,60,61,62,63,64,65,66,67,68,69,70,71,72,73,74,75,76,77,78,79,80,81,82,83,84,85,86,87,88,89,90,91,92,93,94,95,96,97,98,99,100]</t>
+  </si>
+  <si>
+    <t>R49 Attic Insulation Upgrade</t>
+  </si>
+  <si>
+    <t>Ceiling R-49, Vented</t>
+  </si>
+  <si>
+    <t>discrete</t>
+  </si>
+  <si>
     <t>../results/national</t>
   </si>
   <si>
@@ -931,22 +985,13 @@
   </si>
   <si>
     <t>../results/national/</t>
-  </si>
-  <si>
-    <t>national</t>
-  </si>
-  <si>
-    <t>Set Res Stock Mode - National</t>
-  </si>
-  <si>
-    <t>1.19.0-rc0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1015,8 +1060,136 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Cambria"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="45">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1095,8 +1268,181 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1113,8 +1459,115 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1503">
+  <cellStyleXfs count="1544">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2618,8 +3071,49 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2716,11 +3210,40 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1503">
+  <cellStyles count="1544">
+    <cellStyle name="20% - Accent1" xfId="1521" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="1525" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="1529" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="1533" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="1537" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="1541" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="1522" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="1526" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="1530" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="1534" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="1538" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="1542" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="1523" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="1527" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="1531" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="1535" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="1539" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="1543" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="1520" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="1524" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="1528" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="1532" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="1536" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="1540" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="1509" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="1513" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="1515" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="1518" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -3472,6 +3995,11 @@
     <cellStyle name="Followed Hyperlink" xfId="1498" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1500" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1502" builtinId="9" hidden="1"/>
+    <cellStyle name="Good" xfId="1508" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="1504" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="1505" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="1506" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="1507" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -4223,7 +4751,15 @@
     <cellStyle name="Hyperlink" xfId="1497" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1499" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1501" builtinId="8" hidden="1"/>
+    <cellStyle name="Input" xfId="1511" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="1514" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="1510" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="1517" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="1512" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1503" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="1519" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="1516" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4522,11 +5058,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4585,7 +5119,7 @@
         <v>74</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>154</v>
@@ -4696,7 +5230,7 @@
         <v>35</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>76</v>
@@ -4718,7 +5252,7 @@
         <v>22</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>296</v>
+        <v>314</v>
       </c>
       <c r="F15" s="22" t="s">
         <v>155</v>
@@ -4765,7 +5299,7 @@
         <v>59</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>14</v>
+        <v>293</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
@@ -4791,330 +5325,207 @@
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="22" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$19:$AI$28,1,3*MATCH(Setup!$B20,Lookups!$A$19:$A$30,0)-2))=0,"",INDEX(Lookups!$C$19:$AI$28,1,3*MATCH(Setup!$B20,Lookups!$A$19:$A$30,0)-2))</f>
-        <v>Sample Method</v>
-      </c>
-      <c r="B23" s="17" t="str">
-        <f>IF(D23&lt;&gt;"",D23,IF(LEN(INDEX(Lookups!$C$19:$AI$28,1,3*MATCH(Setup!$B20,Lookups!$A$19:$A$30,0)-1))=0,"",INDEX(Lookups!$C$19:$AI$28,1,3*MATCH(Setup!$B20,Lookups!$A$19:$A$30,0)-1)))</f>
-        <v>all_variables</v>
-      </c>
-      <c r="C23" s="24" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$19:$AI$28,1,3*MATCH(Setup!$B20,Lookups!$A$19:$A$30,0)))=0,"",INDEX(Lookups!$C$19:$AI$28,1,3*MATCH(Setup!$B20,Lookups!$A$19:$A$29,0)))</f>
-        <v>individual_variables / all_variables</v>
-      </c>
-      <c r="D23" s="26" t="s">
-        <v>60</v>
-      </c>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>294</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>294</v>
+      </c>
+      <c r="D23" s="26"/>
       <c r="E23" s="22"/>
     </row>
-    <row r="24" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="22" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$19:$AI$28,2,3*MATCH(Setup!$B20,Lookups!$A$19:$A$30,0)-2))=0,"",INDEX(Lookups!$C$19:$AI$28,2,3*MATCH(Setup!$B20,Lookups!$A$19:$A$30,0)-2))</f>
-        <v>Number of Samples</v>
-      </c>
-      <c r="B24" s="17">
-        <f>IF(D24&lt;&gt;"",D24,IF(LEN(INDEX(Lookups!$C$19:$AI$28,2,3*MATCH(Setup!$B20,Lookups!$A$19:$A$30,0)-1))=0,"",INDEX(Lookups!$C$19:$AI$28,2,3*MATCH(Setup!$B20,Lookups!$A$19:$A$30,0)-1)))</f>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="21">
         <v>100</v>
       </c>
-      <c r="C24" s="24" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$19:$AI$28,2,3*MATCH(Setup!$B20,Lookups!$A$19:$A$30,0)))=0,"",INDEX(Lookups!$C$19:$AI$28,2,3*MATCH(Setup!$B20,Lookups!$A$19:$A$29,0)))</f>
-        <v>positive integer (if individual, total simulations is this times each variable)</v>
-      </c>
-      <c r="D24" s="26">
-        <v>100</v>
+      <c r="C24" s="21" t="s">
+        <v>132</v>
       </c>
       <c r="E24" s="22"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="22" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$19:$AI$28,3,3*MATCH(Setup!$B20,Lookups!$A$19:$A$30,0)-2))=0,"",INDEX(Lookups!$C$19:$AI$28,3,3*MATCH(Setup!$B20,Lookups!$A$19:$A$30,0)-2))</f>
-        <v/>
-      </c>
-      <c r="B25" s="17" t="str">
-        <f>IF(D25&lt;&gt;"",D25,IF(LEN(INDEX(Lookups!$C$19:$AI$28,3,3*MATCH(Setup!$B20,Lookups!$A$19:$A$30,0)-1))=0,"",INDEX(Lookups!$C$19:$AI$28,3,3*MATCH(Setup!$B20,Lookups!$A$19:$A$30,0)-1)))</f>
-        <v/>
-      </c>
-      <c r="C25" s="24" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$19:$AI$28,3,3*MATCH(Setup!$B20,Lookups!$A$19:$A$30,0)))=0,"",INDEX(Lookups!$C$19:$AI$28,3,3*MATCH(Setup!$B20,Lookups!$A$19:$A$29,0)))</f>
-        <v/>
-      </c>
+      <c r="A25" s="22"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
       <c r="D25" s="26"/>
       <c r="E25" s="22"/>
     </row>
     <row r="26" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="22" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$19:$AI$28,4,3*MATCH(Setup!$B20,Lookups!$A$19:$A$30,0)-2))=0,"",INDEX(Lookups!$C$19:$AI$28,4,3*MATCH(Setup!$B20,Lookups!$A$19:$A$30,0)-2))</f>
-        <v/>
-      </c>
-      <c r="B26" s="17" t="str">
-        <f>IF(D26&lt;&gt;"",D26,IF(LEN(INDEX(Lookups!$C$19:$AI$28,4,3*MATCH(Setup!$B20,Lookups!$A$19:$A$30,0)-1))=0,"",INDEX(Lookups!$C$19:$AI$28,4,3*MATCH(Setup!$B20,Lookups!$A$19:$A$30,0)-1)))</f>
-        <v/>
-      </c>
-      <c r="C26" s="24" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$19:$AI$28,4,3*MATCH(Setup!$B20,Lookups!$A$19:$A$30,0)))=0,"",INDEX(Lookups!$C$19:$AI$28,4,3*MATCH(Setup!$B20,Lookups!$A$19:$A$29,0)))</f>
-        <v/>
-      </c>
+      <c r="A26" s="21"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
       <c r="D26" s="26"/>
     </row>
     <row r="27" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="22" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$19:$AI$28,5,3*MATCH(Setup!$B20,Lookups!$A$19:$A$30,0)-2))=0,"",INDEX(Lookups!$C$19:$AI$28,5,3*MATCH(Setup!$B20,Lookups!$A$19:$A$30,0)-2))</f>
-        <v/>
-      </c>
-      <c r="B27" s="17" t="str">
-        <f>IF(D27&lt;&gt;"",D27,IF(LEN(INDEX(Lookups!$C$19:$AI$28,5,3*MATCH(Setup!$B20,Lookups!$A$19:$A$30,0)-1))=0,"",INDEX(Lookups!$C$19:$AI$28,5,3*MATCH(Setup!$B20,Lookups!$A$19:$A$30,0)-1)))</f>
-        <v/>
-      </c>
-      <c r="C27" s="24" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$19:$AI$28,5,3*MATCH(Setup!$B20,Lookups!$A$19:$A$30,0)))=0,"",INDEX(Lookups!$C$19:$AI$28,5,3*MATCH(Setup!$B20,Lookups!$A$19:$A$29,0)))</f>
-        <v/>
-      </c>
+      <c r="B27" s="20"/>
       <c r="D27" s="26"/>
     </row>
     <row r="28" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="22" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$19:$AI$28,6,3*MATCH(Setup!$B20,Lookups!$A$19:$A$30,0)-2))=0,"",INDEX(Lookups!$C$19:$AI$28,6,3*MATCH(Setup!$B20,Lookups!$A$19:$A$30,0)-2))</f>
-        <v/>
-      </c>
-      <c r="B28" s="17" t="str">
-        <f>IF(D28&lt;&gt;"",D28,IF(LEN(INDEX(Lookups!$C$19:$AI$28,6,3*MATCH(Setup!$B20,Lookups!$A$19:$A$30,0)-1))=0,"",INDEX(Lookups!$C$19:$AI$28,6,3*MATCH(Setup!$B20,Lookups!$A$19:$A$30,0)-1)))</f>
-        <v/>
-      </c>
-      <c r="C28" s="24" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$19:$AI$28,6,3*MATCH(Setup!$B20,Lookups!$A$19:$A$30,0)))=0,"",INDEX(Lookups!$C$19:$AI$28,6,3*MATCH(Setup!$B20,Lookups!$A$19:$A$29,0)))</f>
-        <v/>
-      </c>
+      <c r="B28" s="20"/>
       <c r="D28" s="26"/>
     </row>
     <row r="29" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="22" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$19:$AI$28,7,3*MATCH(Setup!$B20,Lookups!$A$19:$A$30,0)-2))=0,"",INDEX(Lookups!$C$19:$AI$28,7,3*MATCH(Setup!$B20,Lookups!$A$19:$A$30,0)-2))</f>
-        <v/>
-      </c>
-      <c r="B29" s="17" t="str">
-        <f>IF(D29&lt;&gt;"",D29,IF(LEN(INDEX(Lookups!$C$19:$AI$28,7,3*MATCH(Setup!$B20,Lookups!$A$19:$A$30,0)-1))=0,"",INDEX(Lookups!$C$19:$AI$28,7,3*MATCH(Setup!$B20,Lookups!$A$19:$A$30,0)-1)))</f>
-        <v/>
-      </c>
-      <c r="C29" s="24" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$19:$AI$28,7,3*MATCH(Setup!$B20,Lookups!$A$19:$A$30,0)))=0,"",INDEX(Lookups!$C$19:$AI$28,7,3*MATCH(Setup!$B20,Lookups!$A$19:$A$29,0)))</f>
-        <v/>
-      </c>
+      <c r="B29" s="20"/>
+      <c r="C29" s="21"/>
       <c r="D29" s="26"/>
     </row>
     <row r="30" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="22" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$19:$AI$28,8,3*MATCH(Setup!$B20,Lookups!$A$19:$A$30,0)-2))=0,"",INDEX(Lookups!$C$19:$AI$28,8,3*MATCH(Setup!$B20,Lookups!$A$19:$A$30,0)-2))</f>
-        <v/>
-      </c>
-      <c r="B30" s="17" t="str">
-        <f>IF(D30&lt;&gt;"",D30,IF(LEN(INDEX(Lookups!$C$19:$AI$28,8,3*MATCH(Setup!$B20,Lookups!$A$19:$A$30,0)-1))=0,"",INDEX(Lookups!$C$19:$AI$28,8,3*MATCH(Setup!$B20,Lookups!$A$19:$A$30,0)-1)))</f>
-        <v/>
-      </c>
-      <c r="C30" s="24" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$19:$AI$28,8,3*MATCH(Setup!$B20,Lookups!$A$19:$A$30,0)))=0,"",INDEX(Lookups!$C$19:$AI$28,8,3*MATCH(Setup!$B20,Lookups!$A$19:$A$29,0)))</f>
-        <v/>
-      </c>
+      <c r="B30" s="20"/>
+      <c r="C30" s="21"/>
       <c r="D30" s="26"/>
     </row>
     <row r="31" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="22" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$19:$AI$28,9,3*MATCH(Setup!$B20,Lookups!$A$19:$A$30,0)-2))=0,"",INDEX(Lookups!$C$19:$AI$28,9,3*MATCH(Setup!$B20,Lookups!$A$19:$A$30,0)-2))</f>
-        <v/>
-      </c>
-      <c r="B31" s="17" t="str">
-        <f>IF(D31&lt;&gt;"",D31,IF(LEN(INDEX(Lookups!$C$19:$AI$28,9,3*MATCH(Setup!$B20,Lookups!$A$19:$A$30,0)-1))=0,"",INDEX(Lookups!$C$19:$AI$28,9,3*MATCH(Setup!$B20,Lookups!$A$19:$A$30,0)-1)))</f>
-        <v/>
-      </c>
-      <c r="C31" s="24" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$19:$AI$28,9,3*MATCH(Setup!$B20,Lookups!$A$19:$A$30,0)))=0,"",INDEX(Lookups!$C$19:$AI$28,9,3*MATCH(Setup!$B20,Lookups!$A$19:$A$29,0)))</f>
-        <v/>
-      </c>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
       <c r="D31" s="26"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="22" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$19:$AI$28,10,3*MATCH(Setup!$B20,Lookups!$A$19:$A$30,0)-2))=0,"",INDEX(Lookups!$C$19:$AI$28,10,3*MATCH(Setup!$B20,Lookups!$A$19:$A$30,0)-2))</f>
-        <v/>
-      </c>
-      <c r="B32" s="17" t="str">
-        <f>IF(D32&lt;&gt;"",D32,IF(LEN(INDEX(Lookups!$C$19:$AI$28,10,3*MATCH(Setup!$B20,Lookups!$A$19:$A$30,0)-1))=0,"",INDEX(Lookups!$C$19:$AI$28,10,3*MATCH(Setup!$B20,Lookups!$A$19:$A$30,0)-1)))</f>
-        <v/>
-      </c>
-      <c r="C32" s="24" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$19:$AI$28,10,3*MATCH(Setup!$B20,Lookups!$A$19:$A$30,0)))=0,"",INDEX(Lookups!$C$19:$AI$28,10,3*MATCH(Setup!$B20,Lookups!$A$19:$A$29,0)))</f>
-        <v/>
-      </c>
+      <c r="A32" s="22"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="21"/>
       <c r="D32" s="26"/>
       <c r="E32" s="22"/>
     </row>
     <row r="33" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="22" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$19:$AI$32,11,3*MATCH(Setup!$B20,Lookups!$A$19:$A$30,0)-2))=0,"",INDEX(Lookups!$C$19:$AI$32,11,3*MATCH(Setup!$B20,Lookups!$A$19:$A$30,0)-2))</f>
-        <v/>
-      </c>
-      <c r="B33" s="17" t="str">
-        <f>IF(D33&lt;&gt;"",D33,IF(LEN(INDEX(Lookups!$C$19:$AI$29,11,3*MATCH(Setup!$B20,Lookups!$A$19:$A$30,0)-1))=0,"",INDEX(Lookups!$C$19:$AI$29,11,3*MATCH(Setup!$B20,Lookups!$A$19:$A$30,0)-1)))</f>
-        <v/>
-      </c>
-      <c r="C33" s="24" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$19:$AI$32,11,3*MATCH(Setup!$B20,Lookups!$A$19:$A$30,0)))=0,"",INDEX(Lookups!$C$19:$AI$32,11,3*MATCH(Setup!$B20,Lookups!$A$19:$A$29,0)))</f>
-        <v/>
-      </c>
-      <c r="D33" s="26"/>
-    </row>
-    <row r="34" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="22" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$19:$AI$32,12,3*MATCH(Setup!$B20,Lookups!$A$19:$A$30,0)-2))=0,"",INDEX(Lookups!$C$19:$AI$32,12,3*MATCH(Setup!$B20,Lookups!$A$19:$A$30,0)-2))</f>
-        <v/>
-      </c>
-      <c r="B34" s="17" t="str">
-        <f>IF(D34&lt;&gt;"",D34,IF(LEN(INDEX(Lookups!$C$19:$AI$32,12,3*MATCH(Setup!$B20,Lookups!$A$19:$A$30,0)-1))=0,"",INDEX(Lookups!$C$19:$AI$32,12,3*MATCH(Setup!$B20,Lookups!$A$19:$A$30,0)-1)))</f>
-        <v/>
-      </c>
-      <c r="C34" s="24" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$19:$AI$32,12,3*MATCH(Setup!$B20,Lookups!$A$19:$A$30,0)))=0,"",INDEX(Lookups!$C$19:$AI$32,12,3*MATCH(Setup!$B20,Lookups!$A$19:$A$29,0)))</f>
-        <v/>
-      </c>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-    </row>
-    <row r="35" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="22" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$19:$AI$32,13,3*MATCH(Setup!$B20,Lookups!$A$19:$A$30,0)-2))=0,"",INDEX(Lookups!$C$19:$AI$32,13,3*MATCH(Setup!$B20,Lookups!$A$19:$A$30,0)-2))</f>
-        <v/>
-      </c>
-      <c r="B35" s="17" t="str">
-        <f>IF(D35&lt;&gt;"",D35,IF(LEN(INDEX(Lookups!$C$19:$AI$32,13,3*MATCH(Setup!$B20,Lookups!$A$19:$A$30,0)-1))=0,"",INDEX(Lookups!$C$19:$AI$32,13,3*MATCH(Setup!$B20,Lookups!$A$19:$A$30,0)-1)))</f>
-        <v/>
-      </c>
-      <c r="C35" s="24" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$19:$AI$32,13,3*MATCH(Setup!$B20,Lookups!$A$19:$A$30,0)))=0,"",INDEX(Lookups!$C$19:$AI$32,13,3*MATCH(Setup!$B20,Lookups!$A$19:$A$29,0)))</f>
-        <v/>
-      </c>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-    </row>
-    <row r="36" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="22" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$19:$AI$32,14,3*MATCH(Setup!$B20,Lookups!$A$19:$A$30,0)-2))=0,"",INDEX(Lookups!$C$19:$AI$32,14,3*MATCH(Setup!$B20,Lookups!$A$19:$A$30,0)-2))</f>
-        <v/>
-      </c>
-      <c r="B36" s="17" t="str">
-        <f>IF(D36&lt;&gt;"",D36,IF(LEN(INDEX(Lookups!$C$19:$AI$32,14,3*MATCH(Setup!$B20,Lookups!$A$19:$A$30,0)-1))=0,"",INDEX(Lookups!$C$19:$AI$32,14,3*MATCH(Setup!$B20,Lookups!$A$19:$A$30,0)-1)))</f>
-        <v/>
-      </c>
-      <c r="C36" s="24" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$19:$AI$32,14,3*MATCH(Setup!$B20,Lookups!$A$19:$A$30,0)))=0,"",INDEX(Lookups!$C$19:$AI$32,14,3*MATCH(Setup!$B20,Lookups!$A$19:$A$29,0)))</f>
-        <v/>
-      </c>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="2"/>
+    </row>
+    <row r="34" spans="1:6" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="8"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" s="25" t="s">
+        <v>315</v>
+      </c>
     </row>
     <row r="37" spans="1:6" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B37" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B37" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D37" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="C37" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" s="6"/>
       <c r="E37" s="6"/>
-      <c r="F37" s="8"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B38" s="25" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="F37" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B38" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B40" s="37" t="s">
-        <v>61</v>
+        <v>31</v>
+      </c>
+      <c r="B40" s="18" t="s">
+        <v>30</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>156</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="D40" s="6"/>
       <c r="E40" s="6"/>
       <c r="F40" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="B41" s="16" t="s">
-        <v>231</v>
-      </c>
-      <c r="C41" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="D41" s="14" t="s">
-        <v>235</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A43" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B43" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="8" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="44" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="44" t="s">
+    <row r="41" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="44" t="s">
         <v>240</v>
       </c>
-      <c r="B44" s="42" t="s">
-        <v>251</v>
-      </c>
-      <c r="C44" s="22" t="s">
-        <v>252</v>
-      </c>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="44" t="s">
+      <c r="B41" s="42" t="s">
+        <v>247</v>
+      </c>
+      <c r="C41" s="22" t="s">
+        <v>248</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="44" t="s">
         <v>240</v>
       </c>
-      <c r="B45" s="17" t="s">
+      <c r="B42" s="17" t="s">
         <v>239</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>298</v>
-      </c>
+      <c r="C42" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="B44" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="24"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="7"/>
+    </row>
+    <row r="46" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="17"/>
+      <c r="D46" s="2"/>
     </row>
     <row r="47" spans="1:6" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C47" s="6" t="s">
         <v>196</v>
@@ -5122,41 +5533,12 @@
       <c r="D47" s="18"/>
       <c r="E47" s="18"/>
       <c r="F47" s="8" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="24"/>
-      <c r="D48" s="24"/>
-      <c r="E48" s="24"/>
-      <c r="F48" s="7"/>
-    </row>
-    <row r="49" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="17"/>
-      <c r="D49" s="2"/>
-    </row>
-    <row r="50" spans="1:6" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A50" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="B50" s="18" t="s">
-        <v>199</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="D50" s="18"/>
-      <c r="E50" s="18"/>
-      <c r="F50" s="8" t="s">
         <v>200</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20">
-      <formula1>AnalysisType</formula1>
-    </dataValidation>
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17">
       <formula1>Workflow</formula1>
     </dataValidation>
@@ -5174,9 +5556,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z10"/>
+  <dimension ref="A1:Z20"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R13" sqref="R13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5230,14 +5614,14 @@
       <c r="R1" s="30"/>
       <c r="S1" s="27"/>
       <c r="T1" s="27"/>
-      <c r="U1" s="50" t="s">
+      <c r="U1" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="V1" s="50"/>
-      <c r="W1" s="50"/>
-      <c r="X1" s="50"/>
-      <c r="Y1" s="50"/>
-      <c r="Z1" s="50"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="51"/>
+      <c r="Y1" s="51"/>
+      <c r="Z1" s="51"/>
     </row>
     <row r="2" spans="1:26" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
@@ -5358,13 +5742,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>300</v>
+        <v>241</v>
       </c>
       <c r="C4" s="39" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="D4" s="39" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="E4" s="39" t="s">
         <v>40</v>
@@ -5389,56 +5773,67 @@
       <c r="W4" s="39"/>
       <c r="X4" s="39"/>
     </row>
-    <row r="5" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
-      <c r="V5" s="10"/>
-      <c r="W5" s="10"/>
-      <c r="X5" s="10"/>
-      <c r="Y5" s="15"/>
-      <c r="Z5" s="15"/>
+    <row r="5" spans="1:26" s="46" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="45"/>
+      <c r="B5" s="45" t="s">
+        <v>295</v>
+      </c>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45" t="s">
+        <v>243</v>
+      </c>
+      <c r="E5" s="45" t="s">
+        <v>244</v>
+      </c>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45" t="s">
+        <v>297</v>
+      </c>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45">
+        <v>1</v>
+      </c>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45">
+        <v>1</v>
+      </c>
+      <c r="L5" s="45">
+        <f>Setup!B24</f>
+        <v>100</v>
+      </c>
+      <c r="M5" s="45">
+        <v>50</v>
+      </c>
+      <c r="N5" s="45">
+        <v>16</v>
+      </c>
+      <c r="O5" s="45"/>
+      <c r="P5" s="45" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q5" s="45"/>
+      <c r="R5" s="45" t="s">
+        <v>313</v>
+      </c>
+      <c r="S5" s="45"/>
+      <c r="T5" s="45"/>
+      <c r="U5" s="45"/>
+      <c r="V5" s="45"/>
+      <c r="W5" s="45"/>
+      <c r="X5" s="45"/>
     </row>
     <row r="6" spans="1:26" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="39" t="b">
         <v>1</v>
       </c>
       <c r="B6" s="39" t="s">
-        <v>241</v>
+        <v>306</v>
       </c>
       <c r="C6" s="39" t="s">
-        <v>242</v>
+        <v>299</v>
       </c>
       <c r="D6" s="39" t="s">
-        <v>242</v>
+        <v>299</v>
       </c>
       <c r="E6" s="39" t="s">
         <v>40</v>
@@ -5463,27 +5858,23 @@
       <c r="W6" s="39"/>
       <c r="X6" s="39"/>
     </row>
-    <row r="7" spans="1:26" s="46" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="45"/>
+    <row r="7" spans="1:26" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="45" t="s">
         <v>245</v>
       </c>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45" t="s">
-        <v>243</v>
+      <c r="D7" s="45" t="str">
+        <f>"Run Measure " &amp; B6</f>
+        <v>Run Measure R60 Attic Insulation Upgrade</v>
       </c>
       <c r="E7" s="45" t="s">
-        <v>244</v>
-      </c>
-      <c r="F7" s="45"/>
+        <v>296</v>
+      </c>
       <c r="G7" s="45" t="s">
-        <v>169</v>
-      </c>
-      <c r="H7" s="45"/>
+        <v>297</v>
+      </c>
       <c r="I7" s="45">
-        <v>0.5</v>
-      </c>
-      <c r="J7" s="45"/>
+        <v>1</v>
+      </c>
       <c r="K7" s="45">
         <v>0</v>
       </c>
@@ -5491,131 +5882,431 @@
         <v>1</v>
       </c>
       <c r="M7" s="45">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="N7" s="45">
-        <v>0.1666667</v>
-      </c>
-      <c r="O7" s="45"/>
-      <c r="P7" s="45"/>
-      <c r="Q7" s="45"/>
+        <v>1</v>
+      </c>
+      <c r="P7" s="45" t="s">
+        <v>298</v>
+      </c>
       <c r="R7" s="45" t="s">
-        <v>246</v>
-      </c>
-      <c r="S7" s="45"/>
-      <c r="T7" s="45"/>
-      <c r="U7" s="45"/>
-      <c r="V7" s="45"/>
-      <c r="W7" s="45"/>
-      <c r="X7" s="45"/>
-    </row>
-    <row r="8" spans="1:26" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="40" t="b">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="10"/>
+      <c r="X8" s="10"/>
+      <c r="Y8" s="15"/>
+      <c r="Z8" s="15"/>
+    </row>
+    <row r="9" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="10"/>
+      <c r="X9" s="10"/>
+      <c r="Y9" s="15"/>
+      <c r="Z9" s="15"/>
+    </row>
+    <row r="10" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="10"/>
+      <c r="Y10" s="15"/>
+      <c r="Z10" s="15"/>
+    </row>
+    <row r="11" spans="1:26" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="39" t="b">
         <v>1</v>
       </c>
-      <c r="B8" s="40" t="s">
-        <v>253</v>
-      </c>
-      <c r="C8" s="40" t="s">
+      <c r="B11" s="39" t="s">
+        <v>311</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>299</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>299</v>
+      </c>
+      <c r="E11" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="39"/>
+      <c r="O11" s="39"/>
+      <c r="P11" s="39"/>
+      <c r="Q11" s="39"/>
+      <c r="R11" s="39"/>
+      <c r="S11" s="39"/>
+      <c r="T11" s="39"/>
+      <c r="U11" s="39"/>
+      <c r="V11" s="39"/>
+      <c r="W11" s="39"/>
+      <c r="X11" s="39"/>
+    </row>
+    <row r="12" spans="1:26" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="45" t="s">
+        <v>245</v>
+      </c>
+      <c r="D12" s="45" t="str">
+        <f>"Run Measure " &amp; B11</f>
+        <v>Run Measure R49 Attic Insulation Upgrade</v>
+      </c>
+      <c r="E12" s="45" t="s">
+        <v>296</v>
+      </c>
+      <c r="G12" s="45" t="s">
+        <v>297</v>
+      </c>
+      <c r="I12" s="45">
+        <v>1</v>
+      </c>
+      <c r="K12" s="45">
+        <v>0</v>
+      </c>
+      <c r="L12" s="45">
+        <v>1</v>
+      </c>
+      <c r="M12" s="45">
+        <v>1</v>
+      </c>
+      <c r="N12" s="45">
+        <v>1</v>
+      </c>
+      <c r="P12" s="45" t="s">
+        <v>298</v>
+      </c>
+      <c r="R12" s="45" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="10"/>
+      <c r="W13" s="10"/>
+      <c r="X13" s="10"/>
+      <c r="Y13" s="15"/>
+      <c r="Z13" s="15"/>
+    </row>
+    <row r="14" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="10"/>
+      <c r="W14" s="10"/>
+      <c r="X14" s="10"/>
+      <c r="Y14" s="15"/>
+      <c r="Z14" s="15"/>
+    </row>
+    <row r="15" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="10"/>
+      <c r="V15" s="10"/>
+      <c r="W15" s="10"/>
+      <c r="X15" s="10"/>
+      <c r="Y15" s="15"/>
+      <c r="Z15" s="15"/>
+    </row>
+    <row r="16" spans="1:26" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="40" t="b">
+        <v>1</v>
+      </c>
+      <c r="B16" s="40" t="s">
+        <v>249</v>
+      </c>
+      <c r="C16" s="40" t="s">
+        <v>250</v>
+      </c>
+      <c r="D16" s="40" t="s">
+        <v>250</v>
+      </c>
+      <c r="E16" s="40" t="s">
+        <v>236</v>
+      </c>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="40"/>
+      <c r="O16" s="40"/>
+      <c r="P16" s="40"/>
+      <c r="Q16" s="40"/>
+      <c r="R16" s="40"/>
+      <c r="S16" s="40"/>
+      <c r="T16" s="40"/>
+      <c r="U16" s="40"/>
+      <c r="V16" s="40"/>
+      <c r="W16" s="40"/>
+      <c r="X16" s="40"/>
+    </row>
+    <row r="17" spans="1:24" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="40" t="b">
+        <v>1</v>
+      </c>
+      <c r="B17" s="40" t="s">
         <v>254</v>
       </c>
-      <c r="D8" s="40" t="s">
-        <v>254</v>
-      </c>
-      <c r="E8" s="40" t="s">
+      <c r="C17" s="40" t="s">
+        <v>255</v>
+      </c>
+      <c r="D17" s="40" t="s">
+        <v>255</v>
+      </c>
+      <c r="E17" s="40" t="s">
         <v>236</v>
       </c>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="40"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="40"/>
-      <c r="R8" s="40"/>
-      <c r="S8" s="40"/>
-      <c r="T8" s="40"/>
-      <c r="U8" s="40"/>
-      <c r="V8" s="40"/>
-      <c r="W8" s="40"/>
-      <c r="X8" s="40"/>
-    </row>
-    <row r="9" spans="1:26" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="40" t="b">
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="40"/>
+      <c r="O17" s="40"/>
+      <c r="P17" s="40"/>
+      <c r="Q17" s="40"/>
+      <c r="R17" s="40"/>
+      <c r="S17" s="40"/>
+      <c r="T17" s="40"/>
+      <c r="U17" s="40"/>
+      <c r="V17" s="40"/>
+      <c r="W17" s="40"/>
+      <c r="X17" s="40"/>
+    </row>
+    <row r="18" spans="1:24" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="40" t="b">
         <v>1</v>
       </c>
-      <c r="B9" s="40" t="s">
-        <v>258</v>
-      </c>
-      <c r="C9" s="40" t="s">
-        <v>259</v>
-      </c>
-      <c r="D9" s="40" t="s">
-        <v>259</v>
-      </c>
-      <c r="E9" s="40" t="s">
+      <c r="B18" s="40" t="s">
+        <v>238</v>
+      </c>
+      <c r="C18" s="40" t="s">
+        <v>237</v>
+      </c>
+      <c r="D18" s="40" t="s">
+        <v>237</v>
+      </c>
+      <c r="E18" s="40" t="s">
         <v>236</v>
       </c>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="40"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="40"/>
-      <c r="Q9" s="40"/>
-      <c r="R9" s="40"/>
-      <c r="S9" s="40"/>
-      <c r="T9" s="40"/>
-      <c r="U9" s="40"/>
-      <c r="V9" s="40"/>
-      <c r="W9" s="40"/>
-      <c r="X9" s="40"/>
-    </row>
-    <row r="10" spans="1:26" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="40" t="b">
-        <v>1</v>
-      </c>
-      <c r="B10" s="40" t="s">
-        <v>238</v>
-      </c>
-      <c r="C10" s="40" t="s">
-        <v>237</v>
-      </c>
-      <c r="D10" s="40" t="s">
-        <v>237</v>
-      </c>
-      <c r="E10" s="40" t="s">
-        <v>236</v>
-      </c>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
-      <c r="N10" s="40"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="40"/>
-      <c r="Q10" s="40"/>
-      <c r="R10" s="40"/>
-      <c r="S10" s="40"/>
-      <c r="T10" s="40"/>
-      <c r="U10" s="40"/>
-      <c r="V10" s="40"/>
-      <c r="W10" s="40"/>
-      <c r="X10" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="40"/>
+      <c r="O18" s="40"/>
+      <c r="P18" s="40"/>
+      <c r="Q18" s="40"/>
+      <c r="R18" s="40"/>
+      <c r="S18" s="40"/>
+      <c r="T18" s="40"/>
+      <c r="U18" s="40"/>
+      <c r="V18" s="40"/>
+      <c r="W18" s="40"/>
+      <c r="X18" s="40"/>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B19" s="50"/>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B20" s="50"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:AA3"/>
@@ -5624,11 +6315,6 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -5754,15 +6440,15 @@
     </row>
     <row r="4" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="47" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B4" s="48"/>
       <c r="C4" s="48"/>
       <c r="D4" s="48" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F4" s="48" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="G4" s="48" t="b">
         <v>0</v>
@@ -5780,13 +6466,13 @@
     </row>
     <row r="5" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="49" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="G5" s="14" t="b">
         <v>0</v>
@@ -5800,13 +6486,13 @@
     </row>
     <row r="6" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="49" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="G6" s="14" t="b">
         <v>0</v>
@@ -5820,13 +6506,13 @@
     </row>
     <row r="7" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="49" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="G7" s="14" t="b">
         <v>0</v>
@@ -5840,13 +6526,13 @@
     </row>
     <row r="8" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="49" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="G8" s="14" t="b">
         <v>0</v>
@@ -5860,13 +6546,13 @@
     </row>
     <row r="9" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="49" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="G9" s="14" t="b">
         <v>0</v>
@@ -5880,13 +6566,13 @@
     </row>
     <row r="10" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="49" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="G10" s="14" t="b">
         <v>0</v>
@@ -5900,13 +6586,13 @@
     </row>
     <row r="11" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="49" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="G11" s="14" t="b">
         <v>0</v>
@@ -5920,13 +6606,13 @@
     </row>
     <row r="12" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="49" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="G12" s="14" t="b">
         <v>0</v>
@@ -5940,13 +6626,13 @@
     </row>
     <row r="13" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="49" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="G13" s="14" t="b">
         <v>0</v>
@@ -5960,13 +6646,13 @@
     </row>
     <row r="14" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="49" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="G14" s="14" t="b">
         <v>0</v>
@@ -5980,13 +6666,13 @@
     </row>
     <row r="15" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="49" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="G15" s="14" t="b">
         <v>0</v>
@@ -6000,13 +6686,13 @@
     </row>
     <row r="16" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="49" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="G16" s="14" t="b">
         <v>0</v>
@@ -6020,13 +6706,13 @@
     </row>
     <row r="17" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="G17" s="14" t="b">
         <v>0</v>
@@ -6040,13 +6726,13 @@
     </row>
     <row r="18" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="G18" s="14" t="b">
         <v>0</v>
@@ -6060,13 +6746,13 @@
     </row>
     <row r="19" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="G19" s="14" t="b">
         <v>0</v>
@@ -6080,13 +6766,13 @@
     </row>
     <row r="20" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="G20" s="14" t="b">
         <v>0</v>
@@ -6100,13 +6786,13 @@
     </row>
     <row r="21" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="G21" s="14" t="b">
         <v>0</v>
@@ -6120,13 +6806,13 @@
     </row>
     <row r="22" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="G22" s="14" t="b">
         <v>0</v>
